--- a/biology/Zoologie/Charlie_2/Charlie_2.xlsx
+++ b/biology/Zoologie/Charlie_2/Charlie_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie 2 ou Tous les chiens vont au paradis 2 au Canada  (All Dogs Go to Heaven 2) est un film d'animation américain réalisé par  Paul Sabella et  Larry Leker et sorti en 1996. Il s'agit de la suite du premier film.
 Il est inspiré des personnages créés par Don Bluth dans Charlie en 1989.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs années se sont écoulées depuis la mort de Charlie B. Barkin qui vit depuis au paradis des chiens avec notamment son meilleur ami et associé Gratouille ainsi que son ex-ennemi, Carcasse, qui est également un Ange comme Charlie. Le paradis est parfait, un endroit idyllique et sans surprise, ce qui ennuie Charlie, lassé de cette vie « trop céleste » a son goût.
 Entre-temps, Carcasse dérobe le « Cor de Gabriel », un cor céleste permettant d’ouvrit les portes dorée du paradis, mais également n’importe quel porte terrestre. Carcasse, après s'être emparé du Cor, s'enfuit sur Terre mais perd le précieux objet en chemin, ce dernier tombant quelque part à San Francisco.
@@ -549,7 +563,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : All Dogs Go to Heaven 2
 Titre français : Charlie 2
@@ -599,8 +615,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Charlie Sheen : Charlie B. Barkin (Charlie en VF)
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Charlie Sheen : Charlie B. Barkin (Charlie en VF)
 Jesse Corti : Charlie B. Barkin (voix chantée)
 Dom DeLuise : Itchy Itchiford (Gratouille en VF)
 Ernest Borgnine : Carface (Carcasse en VF)
@@ -619,9 +640,43 @@
 Marabina Jaimes : Officer Reyes
 Bobby Di Cicco : Thom
 Annette Helde : Claire
-Maurice LaMarche : Lost &amp; Found Officer (Employé des objets trouvés)
-Voix françaises
-Richard Darbois : Charlie
+Maurice LaMarche : Lost &amp; Found Officer (Employé des objets trouvés)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charlie_2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlie_2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Richard Darbois : Charlie
 Jacques Frantz : Gratouille
 Pascal Renwick : Carcasse
 Céline Monsarrat : Annabelle
@@ -637,34 +692,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Charlie_2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charlie_2</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Don Bluth n'est pas intervenu sur les différentes suites inspirées par le film, qui adoptent un ton plus léger.
-Le film est évoqué lors de la seconde partie du deuxième acte de Half-life VR but the AI is self-aware, une web-série comique dans l'univers du jeu vidéo Half-life. Installé dans la salle de contrôle du site de lancement de fusées (qu'il prétend être la pièce hébergeant les serveurs de Wikipédia), Benrey édite un article de l'encyclopédie en y annonçant la mort de Gordon Freeman. Lorsque ce-dernier, n'ayant dans l'univers de la série pas de page à son nom, lui demande quel article il édite, Benrey lui répond celui de Charlie 2[1].</t>
+Le film est évoqué lors de la seconde partie du deuxième acte de Half-life VR but the AI is self-aware, une web-série comique dans l'univers du jeu vidéo Half-life. Installé dans la salle de contrôle du site de lancement de fusées (qu'il prétend être la pièce hébergeant les serveurs de Wikipédia), Benrey édite un article de l'encyclopédie en y annonçant la mort de Gordon Freeman. Lorsque ce-dernier, n'ayant dans l'univers de la série pas de page à son nom, lui demande quel article il édite, Benrey lui répond celui de Charlie 2.</t>
         </is>
       </c>
     </row>
